--- a/ExcelData/Data_Table/SpritSkill.xlsx
+++ b/ExcelData/Data_Table/SpritSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291C9EB0-D4B1-40D7-9C5C-1F614CE8A1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B49A7F7-B3F8-4A85-A3A7-C64683396803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="5175" windowWidth="22530" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="3735" windowWidth="14955" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpritSkillTable" sheetId="16" r:id="rId1"/>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>BossIndex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
@@ -397,6 +393,10 @@
   </si>
   <si>
     <t>추가 버프</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpritSkillIndex</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I1" activeCellId="1" sqref="H1:H1048576 I1:I1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1040,7 +1040,7 @@
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
@@ -1102,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="30" t="s">
@@ -1118,11 +1118,11 @@
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2" s="39"/>
       <c r="S2" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T2" s="41"/>
       <c r="U2" s="42"/>
@@ -1143,52 +1143,52 @@
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
       <c r="F3" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>19</v>
+      <c r="J3" s="21" t="s">
+        <v>55</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="K3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="29" t="s">
+      <c r="M3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="N3" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="29" t="s">
+      <c r="R3" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="29" t="s">
-        <v>60</v>
+      <c r="S3" s="20" t="s">
+        <v>27</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="T3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="V3" s="34"/>
       <c r="W3" s="1"/>
@@ -1210,55 +1210,55 @@
         <v>3</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>21</v>
+      <c r="K4" s="13" t="s">
+        <v>22</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="13" t="s">
-        <v>53</v>
+      <c r="S4" s="13" t="s">
+        <v>30</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="U4" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="V4" s="11" t="s">
         <v>11</v>
@@ -1285,52 +1285,52 @@
         <v>4</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V5" s="11" t="s">
         <v>12</v>
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="17">
         <v>11</v>
@@ -1418,10 +1418,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="17">
         <v>12</v>
@@ -1488,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="17">
         <v>13</v>
@@ -1558,10 +1558,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="17">
         <v>14</v>

--- a/ExcelData/Data_Table/SpritSkill.xlsx
+++ b/ExcelData/Data_Table/SpritSkill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Desktop\Yggdrasil\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B49A7F7-B3F8-4A85-A3A7-C64683396803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9786B4-8EA0-443F-B576-4440C3EECC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="3735" windowWidth="14955" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpritSkillTable" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>번호</t>
   </si>
@@ -399,6 +399,50 @@
     <t>SpritSkillIndex</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>얼음 장판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>독구름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근불가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속 증가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Spike</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posion_Cloud</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invincibility</t>
+  </si>
+  <si>
+    <t>KeepAway</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
 </sst>
 </file>
 
@@ -408,7 +452,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +546,20 @@
       <name val="calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -684,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +870,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,14 +1099,15 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
@@ -1627,25 +1695,63 @@
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="C10" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2">
+        <v>170001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>40</v>
+      </c>
+      <c r="H10" s="45">
+        <v>0</v>
+      </c>
+      <c r="I10" s="45">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="9">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>40</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>360</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>970008</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>912001</v>
+      </c>
       <c r="V10" s="2"/>
       <c r="W10" s="4"/>
       <c r="X10" s="2"/>
@@ -1659,25 +1765,63 @@
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="C11" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="2">
+        <v>170002</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30</v>
+      </c>
+      <c r="H11" s="45">
+        <v>0</v>
+      </c>
+      <c r="I11" s="45">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>10</v>
+      </c>
+      <c r="L11" s="9">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>360</v>
+      </c>
+      <c r="P11" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>912005</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>912002</v>
+      </c>
       <c r="V11" s="2"/>
       <c r="W11" s="4"/>
       <c r="X11" s="2"/>
@@ -1691,25 +1835,63 @@
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="C12" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>170003</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="45">
+        <v>0</v>
+      </c>
+      <c r="I12" s="45">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+      <c r="L12" s="9">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
+      <c r="O12" s="2">
+        <v>360</v>
+      </c>
+      <c r="P12" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>970015</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>912007</v>
+      </c>
       <c r="V12" s="2"/>
       <c r="W12" s="4"/>
       <c r="X12" s="2"/>
@@ -1723,25 +1905,63 @@
       <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="C13" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2">
+        <v>170004</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6</v>
+      </c>
+      <c r="L13" s="9">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>360</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>970014</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
       <c r="V13" s="2"/>
       <c r="W13" s="4"/>
       <c r="X13" s="2"/>
@@ -1755,25 +1975,63 @@
       <c r="B14" s="6">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="C14" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2">
+        <v>170005</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3</v>
+      </c>
+      <c r="L14" s="9">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>360</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>970011</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>912009</v>
+      </c>
       <c r="V14" s="2"/>
       <c r="W14" s="4"/>
       <c r="X14" s="2"/>
@@ -1787,25 +2045,63 @@
       <c r="B15" s="6">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="C15" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2">
+        <v>170006</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3</v>
+      </c>
+      <c r="L15" s="9">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>360</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>970012</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>912008</v>
+      </c>
       <c r="V15" s="2"/>
       <c r="W15" s="4"/>
       <c r="X15" s="2"/>
@@ -31564,7 +31860,7 @@
   <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="26" man="1"/>
-    <brk id="9" max="32" man="1"/>
+    <brk id="15" max="32" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="47" man="1"/>

--- a/ExcelData/Data_Table/SpritSkill.xlsx
+++ b/ExcelData/Data_Table/SpritSkill.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C120D7-732B-4571-9510-93A140AE0198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7A8CEA-5FAA-4A22-A167-74B9B8DC2BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SpritSkillTable" sheetId="16" r:id="rId1"/>
+    <sheet name="SpritSkill_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritSkillTable!$B$5:$V$101</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritSkillTable!$A$1:$AG$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritSkill_Table!$B$5:$V$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritSkill_Table!$A$1:$AG$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>

--- a/ExcelData/Data_Table/SpritSkill.xlsx
+++ b/ExcelData/Data_Table/SpritSkill.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C120D7-732B-4571-9510-93A140AE0198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7948D0-F577-4C35-AE0C-DE6EC14C6AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SpritSkillTable" sheetId="16" r:id="rId1"/>
+    <sheet name="SpritSkill_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritSkillTable!$B$5:$V$101</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritSkillTable!$A$1:$AG$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SpritSkill_Table!$B$5:$V$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SpritSkill_Table!$A$1:$AG$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>

--- a/ExcelData/Data_Table/SpritSkill.xlsx
+++ b/ExcelData/Data_Table/SpritSkill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7948D0-F577-4C35-AE0C-DE6EC14C6AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E105177-24FA-45C2-BA4B-739576E100B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpritSkill_Table" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>번호</t>
   </si>
@@ -411,6 +411,22 @@
   <si>
     <t>Speedup</t>
   </si>
+  <si>
+    <t>물어 뜯기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>베기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +436,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +536,13 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -692,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -756,9 +779,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,15 +797,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,17 +812,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -829,6 +837,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,7 +1078,7 @@
   <dimension ref="A1:AB996"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B101"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1110,41 +1139,41 @@
     </row>
     <row r="2" spans="1:28" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="41" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="43" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="36" t="s">
+      <c r="T2" s="39"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="W2" s="1"/>
@@ -1156,14 +1185,14 @@
     </row>
     <row r="3" spans="1:28" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="24" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="32" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1178,25 +1207,25 @@
       <c r="K3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="26" t="s">
         <v>51</v>
       </c>
       <c r="S3" s="18" t="s">
@@ -1208,7 +1237,7 @@
       <c r="U3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="37"/>
+      <c r="V3" s="47"/>
       <c r="W3" s="1"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1365,14 +1394,14 @@
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="29" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="15">
-        <v>170001</v>
+        <v>270001</v>
       </c>
       <c r="F6" s="15">
         <v>2</v>
@@ -1380,10 +1409,10 @@
       <c r="G6" s="15">
         <v>40</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="30">
         <v>0</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="30">
         <v>1</v>
       </c>
       <c r="J6" s="15">
@@ -1435,14 +1464,14 @@
       <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="29" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>60</v>
       </c>
       <c r="E7" s="15">
-        <v>170002</v>
+        <v>270002</v>
       </c>
       <c r="F7" s="15">
         <v>2</v>
@@ -1450,10 +1479,10 @@
       <c r="G7" s="15">
         <v>30</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="30">
         <v>0</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="30">
         <v>1</v>
       </c>
       <c r="J7" s="15">
@@ -1505,14 +1534,14 @@
       <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="15">
-        <v>170003</v>
+        <v>270003</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
@@ -1520,10 +1549,10 @@
       <c r="G8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="30">
         <v>0</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="30">
         <v>1</v>
       </c>
       <c r="J8" s="15">
@@ -1575,14 +1604,14 @@
       <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="31" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="15">
-        <v>170004</v>
+        <v>270004</v>
       </c>
       <c r="F9" s="15">
         <v>2</v>
@@ -1645,14 +1674,14 @@
       <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="15">
-        <v>170005</v>
+        <v>270005</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -1715,14 +1744,14 @@
       <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="31" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="15">
-        <v>170006</v>
+        <v>270006</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -1785,25 +1814,63 @@
       <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
+      <c r="C12" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="11">
+        <v>241001</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11">
+        <v>10</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1</v>
+      </c>
+      <c r="L12" s="27">
+        <v>2</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>1</v>
+      </c>
+      <c r="O12" s="11">
+        <v>3</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="28">
+        <v>0</v>
+      </c>
+      <c r="S12" s="28">
+        <v>970016</v>
+      </c>
+      <c r="T12" s="28">
+        <v>0</v>
+      </c>
+      <c r="U12" s="28">
+        <v>912006</v>
+      </c>
       <c r="V12" s="2"/>
       <c r="W12" s="4"/>
       <c r="X12" s="2"/>
@@ -1817,25 +1884,63 @@
       <c r="B13" s="14">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="C13" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2">
+        <v>241002</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>970017</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>912010</v>
+      </c>
       <c r="V13" s="2"/>
       <c r="W13" s="4"/>
       <c r="X13" s="2"/>
@@ -1849,23 +1954,43 @@
       <c r="B14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="2"/>
+      <c r="E14" s="2">
+        <v>241003</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>50</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="S14" s="5">
+        <v>912011</v>
+      </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="2"/>
@@ -31530,7 +31655,7 @@
   <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="26" man="1"/>
-    <brk id="11" max="32" man="1"/>
+    <brk id="14" max="32" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="47" man="1"/>

--- a/ExcelData/Data_Table/SpritSkill.xlsx
+++ b/ExcelData/Data_Table/SpritSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E105177-24FA-45C2-BA4B-739576E100B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFB000D-3F37-413D-97CD-A50CF784E59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>번호</t>
   </si>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>프리팹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -427,6 +423,26 @@
     <t>Slash</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>그림자공</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadowball</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosAttack</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일에 터지는 프리팹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosBody</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -436,7 +452,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,8 +561,24 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,8 +609,14 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -645,56 +683,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -711,11 +699,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -752,49 +753,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -803,61 +792,52 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,7 +1058,7 @@
   <dimension ref="A1:AB996"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1100,7 +1080,7 @@
     <col min="17" max="17" width="8.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="36.125" customWidth="1"/>
     <col min="23" max="23" width="2.25" customWidth="1"/>
@@ -1139,41 +1119,45 @@
     </row>
     <row r="2" spans="1:28" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="33" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="W2" s="1"/>
@@ -1185,14 +1169,14 @@
     </row>
     <row r="3" spans="1:28" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="32" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1202,31 +1186,31 @@
         <v>18</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="N3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>51</v>
       </c>
       <c r="S3" s="18" t="s">
         <v>27</v>
@@ -1237,7 +1221,7 @@
       <c r="U3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="47"/>
+      <c r="V3" s="31"/>
       <c r="W3" s="1"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1257,16 +1241,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>19</v>
@@ -1284,13 +1268,13 @@
         <v>24</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>26</v>
@@ -1332,37 +1316,37 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>13</v>
@@ -1394,11 +1378,11 @@
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>53</v>
+      <c r="C6" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="15">
         <v>270001</v>
@@ -1409,10 +1393,10 @@
       <c r="G6" s="15">
         <v>40</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="26">
         <v>0</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="26">
         <v>1</v>
       </c>
       <c r="J6" s="15">
@@ -1445,8 +1429,8 @@
       <c r="S6" s="17">
         <v>970008</v>
       </c>
-      <c r="T6" s="17">
-        <v>0</v>
+      <c r="T6" s="40">
+        <v>970006</v>
       </c>
       <c r="U6" s="17">
         <v>912001</v>
@@ -1464,11 +1448,11 @@
       <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>54</v>
+      <c r="C7" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="15">
         <v>270002</v>
@@ -1479,10 +1463,10 @@
       <c r="G7" s="15">
         <v>30</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="26">
         <v>0</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="26">
         <v>1</v>
       </c>
       <c r="J7" s="15">
@@ -1515,8 +1499,8 @@
       <c r="S7" s="17">
         <v>912005</v>
       </c>
-      <c r="T7" s="17">
-        <v>0</v>
+      <c r="T7" s="40">
+        <v>970001</v>
       </c>
       <c r="U7" s="17">
         <v>912002</v>
@@ -1534,11 +1518,11 @@
       <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>55</v>
+      <c r="C8" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="15">
         <v>270003</v>
@@ -1549,10 +1533,10 @@
       <c r="G8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="26">
         <v>0</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="26">
         <v>1</v>
       </c>
       <c r="J8" s="15">
@@ -1585,8 +1569,8 @@
       <c r="S8" s="17">
         <v>970015</v>
       </c>
-      <c r="T8" s="17">
-        <v>0</v>
+      <c r="T8" s="40">
+        <v>970013</v>
       </c>
       <c r="U8" s="17">
         <v>912007</v>
@@ -1604,11 +1588,11 @@
       <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>56</v>
+      <c r="C9" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="15">
         <v>270004</v>
@@ -1644,7 +1628,7 @@
         <v>360</v>
       </c>
       <c r="P9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
@@ -1655,8 +1639,8 @@
       <c r="S9" s="17">
         <v>970014</v>
       </c>
-      <c r="T9" s="17">
-        <v>0</v>
+      <c r="T9" s="40">
+        <v>970005</v>
       </c>
       <c r="U9" s="17">
         <v>0</v>
@@ -1674,11 +1658,11 @@
       <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>57</v>
+      <c r="C10" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="15">
         <v>270005</v>
@@ -1714,7 +1698,7 @@
         <v>360</v>
       </c>
       <c r="P10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="15">
         <v>0</v>
@@ -1725,8 +1709,8 @@
       <c r="S10" s="17">
         <v>970011</v>
       </c>
-      <c r="T10" s="17">
-        <v>0</v>
+      <c r="T10" s="40">
+        <v>970004</v>
       </c>
       <c r="U10" s="17">
         <v>912009</v>
@@ -1744,11 +1728,11 @@
       <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>58</v>
+      <c r="C11" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="15">
         <v>270006</v>
@@ -1784,7 +1768,7 @@
         <v>360</v>
       </c>
       <c r="P11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="15">
         <v>0</v>
@@ -1795,8 +1779,8 @@
       <c r="S11" s="17">
         <v>970012</v>
       </c>
-      <c r="T11" s="17">
-        <v>0</v>
+      <c r="T11" s="40">
+        <v>970009</v>
       </c>
       <c r="U11" s="17">
         <v>912008</v>
@@ -1810,65 +1794,65 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="C12" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="15">
         <v>241001</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="15">
         <v>2</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="15">
         <v>10</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="15">
         <v>1</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="15">
         <v>1</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="15">
         <v>0</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="15">
         <v>1</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="16">
         <v>2</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="15">
         <v>0</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="15">
         <v>1</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="15">
         <v>3</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="15">
         <v>0</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="15">
         <v>0</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="17">
         <v>0</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="17">
         <v>970016</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="17">
         <v>0</v>
       </c>
-      <c r="U12" s="28">
+      <c r="U12" s="17">
         <v>912006</v>
       </c>
       <c r="V12" s="2"/>
@@ -1880,65 +1864,65 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A13" s="3"/>
+      <c r="A13" s="1"/>
       <c r="B13" s="14">
         <v>8</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="15">
         <v>241002</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="15">
         <v>2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="15">
         <v>30</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="15">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="15">
         <v>1</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="15">
         <v>0</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="15">
         <v>1</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="16">
         <v>2</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="15">
         <v>0</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="15">
         <v>1</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="15">
         <v>3</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="15">
         <v>0</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="15">
         <v>0</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="17">
         <v>0</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="17">
         <v>970017</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="17">
         <v>0</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="17">
         <v>912010</v>
       </c>
       <c r="V13" s="2"/>
@@ -1950,49 +1934,67 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="1"/>
       <c r="B14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
+      <c r="C14" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="15">
         <v>241003</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="15">
         <v>2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="15">
         <v>50</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="15">
         <v>1</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="15">
         <v>3</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="15">
         <v>2</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="15">
         <v>1</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="16">
         <v>5</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="15">
         <v>0</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5">
-        <v>912011</v>
-      </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="N14" s="15">
+        <v>1</v>
+      </c>
+      <c r="O14" s="15">
+        <v>5</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>0</v>
+      </c>
+      <c r="R14" s="17">
+        <v>0</v>
+      </c>
+      <c r="S14" s="17">
+        <v>970019</v>
+      </c>
+      <c r="T14" s="17">
+        <v>970018</v>
+      </c>
+      <c r="U14" s="17">
+        <v>912012</v>
+      </c>
       <c r="V14" s="2"/>
       <c r="W14" s="4"/>
       <c r="X14" s="2"/>
@@ -2003,28 +2005,28 @@
     </row>
     <row r="15" spans="1:28" ht="16.5" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="14">
+      <c r="B15" s="35">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
       <c r="V15" s="2"/>
       <c r="W15" s="4"/>
       <c r="X15" s="2"/>
@@ -31641,14 +31643,13 @@
       <sortCondition ref="B5:B101"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:U2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>

--- a/ExcelData/Data_Table/SpritSkill.xlsx
+++ b/ExcelData/Data_Table/SpritSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFB000D-3F37-413D-97CD-A50CF784E59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27739602-D638-43D8-A226-A8DAF50B139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3180" windowWidth="24540" windowHeight="7830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpritSkill_Table" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>번호</t>
   </si>
@@ -361,74 +361,6 @@
   </si>
   <si>
     <t>SpritSkillIndex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음 장판</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>독구름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근불가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속 증가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ice_Spike</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Posion_Cloud</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invincibility</t>
-  </si>
-  <si>
-    <t>KeepAway</t>
-  </si>
-  <si>
-    <t>Heal</t>
-  </si>
-  <si>
-    <t>Speedup</t>
-  </si>
-  <si>
-    <t>물어 뜯기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>베기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bite</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slash</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림자공</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadowball</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -807,6 +739,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,22 +769,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,7 +990,10 @@
   <dimension ref="A1:AB996"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1119,16 +1054,16 @@
     </row>
     <row r="2" spans="1:28" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="29"/>
@@ -1144,20 +1079,20 @@
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="20" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
-      <c r="T2" s="39" t="s">
-        <v>71</v>
+      <c r="T2" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="35" t="s">
         <v>10</v>
       </c>
       <c r="W2" s="1"/>
@@ -1169,11 +1104,11 @@
     </row>
     <row r="3" spans="1:28" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="37" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="31" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="28" t="s">
@@ -1221,7 +1156,7 @@
       <c r="U3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="31"/>
+      <c r="V3" s="36"/>
       <c r="W3" s="1"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1378,58 +1313,28 @@
       <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>58</v>
-      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="15">
         <v>270001</v>
       </c>
-      <c r="F6" s="15">
-        <v>2</v>
-      </c>
-      <c r="G6" s="15">
-        <v>40</v>
-      </c>
-      <c r="H6" s="26">
-        <v>0</v>
-      </c>
-      <c r="I6" s="26">
-        <v>1</v>
-      </c>
-      <c r="J6" s="15">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15">
-        <v>10</v>
-      </c>
-      <c r="L6" s="16">
-        <v>5</v>
-      </c>
-      <c r="M6" s="15">
-        <v>40</v>
-      </c>
-      <c r="N6" s="15">
-        <v>2</v>
-      </c>
-      <c r="O6" s="15">
-        <v>360</v>
-      </c>
-      <c r="P6" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>0</v>
-      </c>
-      <c r="R6" s="17">
-        <v>0</v>
-      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="17"/>
       <c r="S6" s="17">
         <v>970008</v>
       </c>
-      <c r="T6" s="40">
+      <c r="T6" s="34">
         <v>970006</v>
       </c>
       <c r="U6" s="17">
@@ -1448,58 +1353,28 @@
       <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="15">
         <v>270002</v>
       </c>
-      <c r="F7" s="15">
-        <v>2</v>
-      </c>
-      <c r="G7" s="15">
-        <v>30</v>
-      </c>
-      <c r="H7" s="26">
-        <v>0</v>
-      </c>
-      <c r="I7" s="26">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15">
-        <v>10</v>
-      </c>
-      <c r="L7" s="16">
-        <v>5</v>
-      </c>
-      <c r="M7" s="15">
-        <v>30</v>
-      </c>
-      <c r="N7" s="15">
-        <v>2</v>
-      </c>
-      <c r="O7" s="15">
-        <v>360</v>
-      </c>
-      <c r="P7" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>0</v>
-      </c>
-      <c r="R7" s="17">
-        <v>0</v>
-      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
       <c r="S7" s="17">
         <v>912005</v>
       </c>
-      <c r="T7" s="40">
+      <c r="T7" s="34">
         <v>970001</v>
       </c>
       <c r="U7" s="17">
@@ -1518,58 +1393,28 @@
       <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="15">
         <v>270003</v>
       </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="26">
-        <v>0</v>
-      </c>
-      <c r="I8" s="26">
-        <v>1</v>
-      </c>
-      <c r="J8" s="15">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15">
-        <v>3</v>
-      </c>
-      <c r="L8" s="16">
-        <v>3</v>
-      </c>
-      <c r="M8" s="15">
-        <v>0</v>
-      </c>
-      <c r="N8" s="15">
-        <v>2</v>
-      </c>
-      <c r="O8" s="15">
-        <v>360</v>
-      </c>
-      <c r="P8" s="15">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="15">
-        <v>0</v>
-      </c>
-      <c r="R8" s="17">
-        <v>0</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="17"/>
       <c r="S8" s="17">
         <v>970015</v>
       </c>
-      <c r="T8" s="40">
+      <c r="T8" s="34">
         <v>970013</v>
       </c>
       <c r="U8" s="17">
@@ -1588,58 +1433,28 @@
       <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>61</v>
-      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="15">
         <v>270004</v>
       </c>
-      <c r="F9" s="15">
-        <v>2</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>5</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1</v>
-      </c>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15">
-        <v>6</v>
-      </c>
-      <c r="L9" s="16">
-        <v>3</v>
-      </c>
-      <c r="M9" s="15">
-        <v>0</v>
-      </c>
-      <c r="N9" s="15">
-        <v>2</v>
-      </c>
-      <c r="O9" s="15">
-        <v>360</v>
-      </c>
-      <c r="P9" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>0</v>
-      </c>
-      <c r="R9" s="17">
-        <v>0</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="17"/>
       <c r="S9" s="17">
         <v>970014</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="34">
         <v>970005</v>
       </c>
       <c r="U9" s="17">
@@ -1658,58 +1473,28 @@
       <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="15">
         <v>270005</v>
       </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>2</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15">
-        <v>3</v>
-      </c>
-      <c r="L10" s="16">
-        <v>5</v>
-      </c>
-      <c r="M10" s="15">
-        <v>0</v>
-      </c>
-      <c r="N10" s="15">
-        <v>2</v>
-      </c>
-      <c r="O10" s="15">
-        <v>360</v>
-      </c>
-      <c r="P10" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>0</v>
-      </c>
-      <c r="R10" s="17">
-        <v>0</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="17"/>
       <c r="S10" s="17">
         <v>970011</v>
       </c>
-      <c r="T10" s="40">
+      <c r="T10" s="34">
         <v>970004</v>
       </c>
       <c r="U10" s="17">
@@ -1728,58 +1513,28 @@
       <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="15">
         <v>270006</v>
       </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
-        <v>2</v>
-      </c>
-      <c r="J11" s="15">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15">
-        <v>3</v>
-      </c>
-      <c r="L11" s="16">
-        <v>10</v>
-      </c>
-      <c r="M11" s="15">
-        <v>0</v>
-      </c>
-      <c r="N11" s="15">
-        <v>2</v>
-      </c>
-      <c r="O11" s="15">
-        <v>360</v>
-      </c>
-      <c r="P11" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>0</v>
-      </c>
-      <c r="R11" s="17">
-        <v>0</v>
-      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="17">
         <v>970012</v>
       </c>
-      <c r="T11" s="40">
+      <c r="T11" s="34">
         <v>970009</v>
       </c>
       <c r="U11" s="17">
@@ -1798,54 +1553,24 @@
       <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="15">
         <v>241001</v>
       </c>
-      <c r="F12" s="15">
-        <v>2</v>
-      </c>
-      <c r="G12" s="15">
-        <v>10</v>
-      </c>
-      <c r="H12" s="15">
-        <v>1</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1</v>
-      </c>
-      <c r="J12" s="15">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15">
-        <v>1</v>
-      </c>
-      <c r="L12" s="16">
-        <v>2</v>
-      </c>
-      <c r="M12" s="15">
-        <v>0</v>
-      </c>
-      <c r="N12" s="15">
-        <v>1</v>
-      </c>
-      <c r="O12" s="15">
-        <v>3</v>
-      </c>
-      <c r="P12" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>0</v>
-      </c>
-      <c r="R12" s="17">
-        <v>0</v>
-      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="17"/>
       <c r="S12" s="17">
         <v>970016</v>
       </c>
@@ -1868,54 +1593,24 @@
       <c r="B13" s="14">
         <v>8</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>67</v>
-      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="15">
         <v>241002</v>
       </c>
-      <c r="F13" s="15">
-        <v>2</v>
-      </c>
-      <c r="G13" s="15">
-        <v>30</v>
-      </c>
-      <c r="H13" s="15">
-        <v>1</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>1</v>
-      </c>
-      <c r="L13" s="16">
-        <v>2</v>
-      </c>
-      <c r="M13" s="15">
-        <v>0</v>
-      </c>
-      <c r="N13" s="15">
-        <v>1</v>
-      </c>
-      <c r="O13" s="15">
-        <v>3</v>
-      </c>
-      <c r="P13" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>0</v>
-      </c>
-      <c r="R13" s="17">
-        <v>0</v>
-      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="17">
         <v>970017</v>
       </c>
@@ -1938,54 +1633,24 @@
       <c r="B14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="15">
         <v>241003</v>
       </c>
-      <c r="F14" s="15">
-        <v>2</v>
-      </c>
-      <c r="G14" s="15">
-        <v>50</v>
-      </c>
-      <c r="H14" s="15">
-        <v>1</v>
-      </c>
-      <c r="I14" s="15">
-        <v>3</v>
-      </c>
-      <c r="J14" s="15">
-        <v>2</v>
-      </c>
-      <c r="K14" s="15">
-        <v>1</v>
-      </c>
-      <c r="L14" s="16">
-        <v>5</v>
-      </c>
-      <c r="M14" s="15">
-        <v>0</v>
-      </c>
-      <c r="N14" s="15">
-        <v>1</v>
-      </c>
-      <c r="O14" s="15">
-        <v>5</v>
-      </c>
-      <c r="P14" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>0</v>
-      </c>
-      <c r="R14" s="17">
-        <v>0</v>
-      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="17"/>
       <c r="S14" s="17">
         <v>970019</v>
       </c>
@@ -2005,7 +1670,7 @@
     </row>
     <row r="15" spans="1:28" ht="16.5" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="35">
+      <c r="B15" s="30">
         <v>10</v>
       </c>
       <c r="C15" s="11"/>
@@ -31653,7 +31318,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="26" man="1"/>
     <brk id="14" max="32" man="1"/>
